--- a/data/output/FV2304_FV2210/UTILMD/11001.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="430">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779" uniqueCount="430">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1442,6 +1442,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U267" totalsRowShown="0">
+  <autoFilter ref="A1:U267"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1731,7 +1761,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14023,5 +14056,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11001.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11001.xlsx
@@ -2648,7 +2648,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4730,7 +4730,7 @@
         <v>389</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5138,7 +5138,7 @@
         <v>390</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5342,7 +5342,7 @@
         <v>391</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5658,7 +5658,7 @@
         <v>392</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5866,7 +5866,7 @@
         <v>393</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6016,7 +6016,7 @@
         <v>394</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6168,7 +6168,7 @@
         <v>395</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6548,7 +6548,7 @@
         <v>397</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6692,7 +6692,7 @@
         <v>397</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6894,7 +6894,7 @@
         <v>399</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7032,7 +7032,7 @@
         <v>400</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7390,7 +7390,7 @@
         <v>403</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7636,7 +7636,7 @@
         <v>405</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8070,7 +8070,7 @@
         <v>407</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8260,7 +8260,7 @@
         <v>408</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8766,7 +8766,7 @@
         <v>410</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9612,7 +9612,7 @@
         <v>412</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10466,7 +10466,7 @@
         <v>415</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10602,7 +10602,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10846,7 +10846,7 @@
         <v>416</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11226,7 +11226,7 @@
         <v>418</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11644,7 +11644,7 @@
         <v>419</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12224,7 +12224,7 @@
         <v>420</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12700,7 +12700,7 @@
         <v>422</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13398,7 +13398,7 @@
         <v>423</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -13696,7 +13696,7 @@
         <v>424</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -13846,7 +13846,7 @@
         <v>425</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -13994,7 +13994,7 @@
         <v>426</v>
       </c>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -14494,7 +14494,7 @@
         <v>425</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -14886,7 +14886,7 @@
         <v>429</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -15534,7 +15534,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N265" s="2"/>
